--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,31 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmordonez\Documents\UiPath\0006B00ENTRADASET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28388C4-18B3-46B9-A387-F8AD8CE5BBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A52E1B-B076-4563-9834-AB77D44A028D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t>Almacen</t>
   </si>
@@ -102,18 +112,12 @@
     <t>Codigo taller</t>
   </si>
   <si>
-    <t>Avisa03403-01</t>
-  </si>
-  <si>
     <t>AVISA54A30-01</t>
   </si>
   <si>
     <t>01K_20122021</t>
   </si>
   <si>
-    <t>cartuja02K-0911</t>
-  </si>
-  <si>
     <t>CARTUJA-211221</t>
   </si>
   <si>
@@ -132,7 +136,19 @@
     <t>03404-Hispalauto</t>
   </si>
   <si>
+    <t>Cartuja02k-0902</t>
+  </si>
+  <si>
+    <t>FicheroImport</t>
+  </si>
+  <si>
+    <t>FicheroRecep</t>
+  </si>
+  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>AVISA03403_01</t>
   </si>
 </sst>
 </file>
@@ -186,7 +202,13 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -225,16 +247,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:G7" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:G7" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{85A103CC-F497-4249-8848-BCE4FA193B2D}" name="Proveedor" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:I7" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{85A103CC-F497-4249-8848-BCE4FA193B2D}" name="Proveedor" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B32CF57C-EF29-4208-A0F4-759C58FB77C6}" name="FicheroImport" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{30EE2724-234E-4C86-BC60-259493EC1A47}" name="FicheroRecep" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -503,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,9 +538,11 @@
     <col min="1" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,8 +564,14 @@
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -553,16 +585,22 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -576,16 +614,22 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -599,16 +643,22 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -622,16 +672,22 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -645,16 +701,22 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -668,13 +730,19 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +757,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:G7 A2:F2 A3:F3 A4:F4 A5:F5 A6:F6" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:C7 A2:D2 A3:D3 A4:F4 A5:D5 A6:F6 F2 F5 F3 F7" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId8"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A52E1B-B076-4563-9834-AB77D44A028D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2C4DE2-770E-4060-BBFA-E25CC41D7819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2C4DE2-770E-4060-BBFA-E25CC41D7819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9818C5-FEA4-42E7-A8CC-D544E138C477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
   <si>
     <t>Almacen</t>
   </si>
@@ -115,12 +115,6 @@
     <t>AVISA54A30-01</t>
   </si>
   <si>
-    <t>01K_20122021</t>
-  </si>
-  <si>
-    <t>CARTUJA-211221</t>
-  </si>
-  <si>
     <t>recambios.chapa@avisa.es</t>
   </si>
   <si>
@@ -149,6 +143,27 @@
   </si>
   <si>
     <t>AVISA03403_01</t>
+  </si>
+  <si>
+    <t>Facturas</t>
+  </si>
+  <si>
+    <t>Cartuja01K_0322</t>
+  </si>
+  <si>
+    <t>CARTUJA-220322</t>
+  </si>
+  <si>
+    <t>C.C.</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;recambios.huelva@cartujamotor.com</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;recambios.se30@cartujamotor.com</t>
   </si>
 </sst>
 </file>
@@ -202,7 +217,13 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -247,18 +268,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:I7" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:I7" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{85A103CC-F497-4249-8848-BCE4FA193B2D}" name="Proveedor" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{B32CF57C-EF29-4208-A0F4-759C58FB77C6}" name="FicheroImport" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{30EE2724-234E-4C86-BC60-259493EC1A47}" name="FicheroRecep" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="11">
+  <autoFilter ref="A1:K7" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{85A103CC-F497-4249-8848-BCE4FA193B2D}" name="Proveedor" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{78DAFA0C-50D3-4B37-8F09-921823A840F6}" name="C.C." dataDxfId="4" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B32CF57C-EF29-4208-A0F4-759C58FB77C6}" name="FicheroImport" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{30EE2724-234E-4C86-BC60-259493EC1A47}" name="FicheroRecep" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{4C852EC4-F10A-4819-B368-55DE0A9F6A51}" name="Facturas" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -527,22 +550,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="18" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,16 +587,22 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -585,22 +616,28 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,19 +654,25 @@
         <v>25</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -643,22 +686,28 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -672,22 +721,28 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -701,22 +756,28 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -730,19 +791,25 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -753,14 +820,20 @@
     <hyperlink ref="F5" r:id="rId4" xr:uid="{26742DEA-ECCA-4AB7-8A6F-D0EAF94EB6D9}"/>
     <hyperlink ref="F6" r:id="rId5" xr:uid="{5A7B7CAC-CCC3-4E2C-AC92-40675294A92F}"/>
     <hyperlink ref="F7" r:id="rId6" xr:uid="{6CD929BB-F9CF-4006-B869-DB206E1BF7B5}"/>
+    <hyperlink ref="G2" r:id="rId7" xr:uid="{E9C283E8-8441-4FC6-90A0-49FC0CAD376E}"/>
+    <hyperlink ref="G3" r:id="rId8" xr:uid="{75CCF01D-C868-4142-91F2-5DE49AC0A1F7}"/>
+    <hyperlink ref="G4" r:id="rId9" xr:uid="{D3EE3C82-4CFA-429B-BAF7-7BD8B31DEB41}"/>
+    <hyperlink ref="G5" r:id="rId10" xr:uid="{354066B4-90FF-460E-8224-845F4B27FA66}"/>
+    <hyperlink ref="G6" r:id="rId11" xr:uid="{B6261357-03CF-45D3-8191-60712AC749E6}"/>
+    <hyperlink ref="G7" r:id="rId12" xr:uid="{3C74F937-B6F9-4832-8370-D32674655872}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:C7 A2:D2 A3:D3 A4:F4 A5:D5 A6:F6 F2 F5 F3 F7" numberStoredAsText="1"/>
+    <ignoredError sqref="A7:C7 A2:D2 A3:D3 A4:D4 A5:D5 A6:D6 F2 F5 F3 F7 F4 F6" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9818C5-FEA4-42E7-A8CC-D544E138C477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141D459-934E-4E90-845B-7BB7AD6AA41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,16 +154,16 @@
     <t>CARTUJA-220322</t>
   </si>
   <si>
-    <t>C.C.</t>
-  </si>
-  <si>
     <t>guillermo.vergara@grupoavisa.net;</t>
   </si>
   <si>
-    <t>guillermo.vergara@grupoavisa.net;recambios.huelva@cartujamotor.com</t>
-  </si>
-  <si>
     <t>guillermo.vergara@grupoavisa.net;recambios.se30@cartujamotor.com</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;jmenayo@cartujamotor.com</t>
   </si>
 </sst>
 </file>
@@ -277,7 +277,7 @@
     <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="7"/>
     <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="6"/>
     <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{78DAFA0C-50D3-4B37-8F09-921823A840F6}" name="C.C." dataDxfId="4" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="11" xr3:uid="{78DAFA0C-50D3-4B37-8F09-921823A840F6}" name="CC" dataDxfId="4" dataCellStyle="Hipervínculo"/>
     <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="3"/>
     <tableColumn id="8" xr3:uid="{B32CF57C-EF29-4208-A0F4-759C58FB77C6}" name="FicheroImport" dataDxfId="2"/>
     <tableColumn id="9" xr3:uid="{30EE2724-234E-4C86-BC60-259493EC1A47}" name="FicheroRecep" dataDxfId="1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
@@ -657,7 +657,7 @@
         <v>27</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
@@ -692,7 +692,7 @@
         <v>28</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
@@ -727,7 +727,7 @@
         <v>28</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
@@ -762,7 +762,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
@@ -797,7 +797,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1141D459-934E-4E90-845B-7BB7AD6AA41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E68B019-703E-49C9-8856-34F44EFD7D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Almacen</t>
   </si>
@@ -112,9 +112,6 @@
     <t>Codigo taller</t>
   </si>
   <si>
-    <t>AVISA54A30-01</t>
-  </si>
-  <si>
     <t>recambios.chapa@avisa.es</t>
   </si>
   <si>
@@ -164,6 +161,12 @@
   </si>
   <si>
     <t>guillermo.vergara@grupoavisa.net;jmenayo@cartujamotor.com</t>
+  </si>
+  <si>
+    <t>Avisa54a30-02</t>
+  </si>
+  <si>
+    <t>SaltarInit</t>
   </si>
 </sst>
 </file>
@@ -217,7 +220,10 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -268,20 +274,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:K7" totalsRowShown="0" headerRowDxfId="11">
-  <autoFilter ref="A1:K7" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{85A103CC-F497-4249-8848-BCE4FA193B2D}" name="Proveedor" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{78DAFA0C-50D3-4B37-8F09-921823A840F6}" name="CC" dataDxfId="4" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{B32CF57C-EF29-4208-A0F4-759C58FB77C6}" name="FicheroImport" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{30EE2724-234E-4C86-BC60-259493EC1A47}" name="FicheroRecep" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{4C852EC4-F10A-4819-B368-55DE0A9F6A51}" name="Facturas" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:L7" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L7" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{85A103CC-F497-4249-8848-BCE4FA193B2D}" name="Proveedor" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{78DAFA0C-50D3-4B37-8F09-921823A840F6}" name="CC" dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{B32CF57C-EF29-4208-A0F4-759C58FB77C6}" name="FicheroImport" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{30EE2724-234E-4C86-BC60-259493EC1A47}" name="FicheroRecep" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{4C852EC4-F10A-4819-B368-55DE0A9F6A51}" name="Facturas" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{F0C504CA-0724-4962-A792-63E9F6EAF1FD}" name="SaltarInit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,24 +557,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="67.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,22 +598,25 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -616,28 +630,31 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -651,28 +668,31 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -686,28 +706,31 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -721,28 +744,31 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -756,28 +782,31 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -791,26 +820,35 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E68B019-703E-49C9-8856-34F44EFD7D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AC86B-03D2-400E-A47D-7DB7041BB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>Almacen</t>
   </si>
@@ -103,70 +102,73 @@
     <t>03404</t>
   </si>
   <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Codigo taller</t>
+  </si>
+  <si>
+    <t>recambios.chapa@avisa.es</t>
+  </si>
+  <si>
+    <t>recambios.audi@avisa.es</t>
+  </si>
+  <si>
+    <t>recambios.sueminencia@cartujamotor.com</t>
+  </si>
+  <si>
+    <t>recambios.sc@hispalauto.com</t>
+  </si>
+  <si>
+    <t>FicheroImport</t>
+  </si>
+  <si>
+    <t>FicheroRecep</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>AVISA03403_01</t>
+  </si>
+  <si>
+    <t>Facturas</t>
+  </si>
+  <si>
+    <t>Cartuja01K_0322</t>
+  </si>
+  <si>
+    <t>CARTUJA-220322</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;recambios.se30@cartujamotor.com</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;jmenayo@cartujamotor.com</t>
+  </si>
+  <si>
+    <t>Avisa54a30-02</t>
+  </si>
+  <si>
+    <t>SaltarInit</t>
+  </si>
+  <si>
+    <t>03404-HISPALAUTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Codigo taller</t>
-  </si>
-  <si>
-    <t>recambios.chapa@avisa.es</t>
-  </si>
-  <si>
-    <t>recambios.audi@avisa.es</t>
-  </si>
-  <si>
-    <t>recambios.sueminencia@cartujamotor.com</t>
-  </si>
-  <si>
-    <t>recambios.sc@hispalauto.com</t>
-  </si>
-  <si>
-    <t>03404-Hispalauto</t>
-  </si>
-  <si>
-    <t>Cartuja02k-0902</t>
-  </si>
-  <si>
-    <t>FicheroImport</t>
-  </si>
-  <si>
-    <t>FicheroRecep</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>AVISA03403_01</t>
-  </si>
-  <si>
-    <t>Facturas</t>
-  </si>
-  <si>
-    <t>Cartuja01K_0322</t>
-  </si>
-  <si>
-    <t>CARTUJA-220322</t>
-  </si>
-  <si>
-    <t>guillermo.vergara@grupoavisa.net;</t>
-  </si>
-  <si>
-    <t>guillermo.vergara@grupoavisa.net;recambios.se30@cartujamotor.com</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>guillermo.vergara@grupoavisa.net;jmenayo@cartujamotor.com</t>
-  </si>
-  <si>
-    <t>Avisa54a30-02</t>
-  </si>
-  <si>
-    <t>SaltarInit</t>
+    <t>CARTUJA-1005</t>
   </si>
 </sst>
 </file>
@@ -557,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,31 +591,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -630,28 +632,28 @@
         <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -668,28 +670,28 @@
         <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -706,28 +708,28 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -744,28 +746,28 @@
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -782,28 +784,28 @@
         <v>20</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -820,28 +822,28 @@
         <v>21</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -849,6 +851,11 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043AC86B-03D2-400E-A47D-7DB7041BB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115E2D50-0D20-4360-A44D-80F89A18E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="18015" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Almacen</t>
   </si>
@@ -63,9 +63,6 @@
     <t>02K</t>
   </si>
   <si>
-    <t>03K</t>
-  </si>
-  <si>
     <t>01S</t>
   </si>
   <si>
@@ -96,9 +93,6 @@
     <t>54K60</t>
   </si>
   <si>
-    <t>54K61</t>
-  </si>
-  <si>
     <t>03404</t>
   </si>
   <si>
@@ -129,46 +123,40 @@
     <t>No</t>
   </si>
   <si>
-    <t>AVISA03403_01</t>
-  </si>
-  <si>
     <t>Facturas</t>
   </si>
   <si>
-    <t>Cartuja01K_0322</t>
-  </si>
-  <si>
-    <t>CARTUJA-220322</t>
-  </si>
-  <si>
     <t>guillermo.vergara@grupoavisa.net;</t>
   </si>
   <si>
-    <t>guillermo.vergara@grupoavisa.net;recambios.se30@cartujamotor.com</t>
-  </si>
-  <si>
     <t>CC</t>
   </si>
   <si>
     <t>guillermo.vergara@grupoavisa.net;jmenayo@cartujamotor.com</t>
   </si>
   <si>
-    <t>Avisa54a30-02</t>
-  </si>
-  <si>
     <t>SaltarInit</t>
   </si>
   <si>
-    <t>03404-HISPALAUTO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>03404-HISPA</t>
+  </si>
+  <si>
+    <t>02K-54K60-0523</t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
-    <t>CARTUJA-1005</t>
+    <t>Recambiosvw-01</t>
+  </si>
+  <si>
+    <t>Cartuja_09456-0623</t>
+  </si>
+  <si>
+    <t>AVISA-JUL23</t>
   </si>
 </sst>
 </file>
@@ -276,8 +264,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:L7" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L7" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L6" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="10"/>
@@ -559,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,31 +579,31 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -623,37 +611,37 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -661,37 +649,37 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -699,37 +687,37 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -737,37 +725,37 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -781,80 +769,42 @@
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="G7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G8" s="2"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>42</v>
+      <c r="A8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -863,22 +813,20 @@
     <hyperlink ref="F3" r:id="rId2" xr:uid="{37E49928-55F4-4D65-9FE2-C3F67DA1C151}"/>
     <hyperlink ref="F4" r:id="rId3" xr:uid="{093A094D-473E-4058-A502-4C180A3B0352}"/>
     <hyperlink ref="F5" r:id="rId4" xr:uid="{26742DEA-ECCA-4AB7-8A6F-D0EAF94EB6D9}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{5A7B7CAC-CCC3-4E2C-AC92-40675294A92F}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{6CD929BB-F9CF-4006-B869-DB206E1BF7B5}"/>
-    <hyperlink ref="G2" r:id="rId7" xr:uid="{E9C283E8-8441-4FC6-90A0-49FC0CAD376E}"/>
-    <hyperlink ref="G3" r:id="rId8" xr:uid="{75CCF01D-C868-4142-91F2-5DE49AC0A1F7}"/>
-    <hyperlink ref="G4" r:id="rId9" xr:uid="{D3EE3C82-4CFA-429B-BAF7-7BD8B31DEB41}"/>
-    <hyperlink ref="G5" r:id="rId10" xr:uid="{354066B4-90FF-460E-8224-845F4B27FA66}"/>
-    <hyperlink ref="G6" r:id="rId11" xr:uid="{B6261357-03CF-45D3-8191-60712AC749E6}"/>
-    <hyperlink ref="G7" r:id="rId12" xr:uid="{3C74F937-B6F9-4832-8370-D32674655872}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{6CD929BB-F9CF-4006-B869-DB206E1BF7B5}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{E9C283E8-8441-4FC6-90A0-49FC0CAD376E}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{75CCF01D-C868-4142-91F2-5DE49AC0A1F7}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{D3EE3C82-4CFA-429B-BAF7-7BD8B31DEB41}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{354066B4-90FF-460E-8224-845F4B27FA66}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{3C74F937-B6F9-4832-8370-D32674655872}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:C7 A2:D2 A3:D3 A4:D4 A5:D5 A6:D6 F2 F5 F3 F7 F4 F6" numberStoredAsText="1"/>
+    <ignoredError sqref="A6:C6 A2:D2 A3:D3 A4:D4 A5:D5 F2 F5 F3 F6 F4" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="1">
-    <tablePart r:id="rId14"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115E2D50-0D20-4360-A44D-80F89A18E3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC4AC9-402E-4997-9CF3-029B410368A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="18015" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -549,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Config.xlsx
+++ b/Config.xlsx
@@ -1,40 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSCC\Documents\UiPath\EntradasFacturasET2000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFC4AC9-402E-4997-9CF3-029B410368A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1808DC73-4EC3-4218-A55F-085C15B58B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2010" windowWidth="21600" windowHeight="13590" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="3" r:id="rId1"/>
+    <sheet name="TimeIni" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="48">
   <si>
     <t>Almacen</t>
   </si>
@@ -45,118 +37,139 @@
     <t>Proveedor</t>
   </si>
   <si>
+    <t>Codigo taller</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
     <t>Procesar</t>
   </si>
   <si>
-    <t>Contraseña</t>
+    <t>FicheroImport</t>
+  </si>
+  <si>
+    <t>FicheroRecep</t>
+  </si>
+  <si>
+    <t>Facturas</t>
+  </si>
+  <si>
+    <t>SaltarInit</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>27831</t>
+  </si>
+  <si>
+    <t>03403</t>
+  </si>
+  <si>
+    <t>recambios.chapa@avisa.es</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
+    <t>54A30</t>
+  </si>
+  <si>
+    <t>recambios.audi@avisa.es</t>
+  </si>
+  <si>
     <t>01K</t>
   </si>
   <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>09456</t>
+  </si>
+  <si>
+    <t>recambios.sueminencia@cartujamotor.com</t>
+  </si>
+  <si>
     <t>02K</t>
   </si>
   <si>
+    <t>54K60</t>
+  </si>
+  <si>
+    <t>guillermo.vergara@grupoavisa.net;jmenayo@cartujamotor.com</t>
+  </si>
+  <si>
     <t>01S</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>00</t>
   </si>
   <si>
-    <t>27831</t>
-  </si>
-  <si>
     <t>55610</t>
   </si>
   <si>
-    <t>03403</t>
-  </si>
-  <si>
-    <t>54A30</t>
-  </si>
-  <si>
-    <t>09456</t>
-  </si>
-  <si>
-    <t>54K60</t>
-  </si>
-  <si>
     <t>03404</t>
   </si>
   <si>
-    <t>Correo</t>
-  </si>
-  <si>
-    <t>Codigo taller</t>
-  </si>
-  <si>
-    <t>recambios.chapa@avisa.es</t>
-  </si>
-  <si>
-    <t>recambios.audi@avisa.es</t>
-  </si>
-  <si>
-    <t>recambios.sueminencia@cartujamotor.com</t>
-  </si>
-  <si>
     <t>recambios.sc@hispalauto.com</t>
   </si>
   <si>
-    <t>FicheroImport</t>
-  </si>
-  <si>
-    <t>FicheroRecep</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Facturas</t>
-  </si>
-  <si>
-    <t>guillermo.vergara@grupoavisa.net;</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>guillermo.vergara@grupoavisa.net;jmenayo@cartujamotor.com</t>
-  </si>
-  <si>
-    <t>SaltarInit</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>03404-HISPA</t>
-  </si>
-  <si>
-    <t>02K-54K60-0523</t>
-  </si>
-  <si>
-    <t>Si</t>
-  </si>
-  <si>
-    <t>Recambiosvw-01</t>
-  </si>
-  <si>
-    <t>Cartuja_09456-0623</t>
-  </si>
-  <si>
-    <t>AVISA-JUL23</t>
+    <t>GrupoAvisa-100423333</t>
+  </si>
+  <si>
+    <t>01S-Hispalauto-30042024</t>
+  </si>
+  <si>
+    <t>61K</t>
+  </si>
+  <si>
+    <t>62K</t>
+  </si>
+  <si>
+    <t>31589</t>
+  </si>
+  <si>
+    <t>Avisa-Badajoz-040424</t>
+  </si>
+  <si>
+    <t>raul.becerra@avisaextremadura.com</t>
+  </si>
+  <si>
+    <t>31590</t>
+  </si>
+  <si>
+    <t>Avisa-Caceres-050424</t>
+  </si>
+  <si>
+    <t>angel.cordero@avisaextremadura.com</t>
+  </si>
+  <si>
+    <t>Cartuja02K-54K60-0524</t>
+  </si>
+  <si>
+    <t>03403-Recambios-062024</t>
+  </si>
+  <si>
+    <t>CARTUJA-01k-09456-06-2024</t>
   </si>
 </sst>
 </file>
@@ -201,13 +214,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{61E860EC-970B-4D7A-AC3C-5200B95A5A5D}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
@@ -264,21 +278,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}" name="Tabla1" displayName="Tabla1" ref="A1:L6" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:L6" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2AA3D318-F8B6-4D63-80E8-77ECBCE39F4B}" name="Tabla1" displayName="Tabla1" ref="A1:L8" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:L8" xr:uid="{80987AA7-C3CC-480F-9CD5-49985F61164D}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{61A521D5-A611-425F-9956-F39315717CF8}" name="Almacen" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{2F7BDD26-509B-4307-AC95-D04FDBDECC76}" name="Marca" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{85A103CC-F497-4249-8848-BCE4FA193B2D}" name="Proveedor" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{8B069ACB-BC0C-49D4-96BC-993FD147F084}" name="Codigo taller" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{4B76C850-ECDC-4837-BA63-1C39742AD1BF}" name="Contraseña" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{487345CF-92FB-4E6D-B74E-750F47DCF18C}" name="Correo" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{78DAFA0C-50D3-4B37-8F09-921823A840F6}" name="CC" dataDxfId="5" dataCellStyle="Hipervínculo"/>
-    <tableColumn id="6" xr3:uid="{7E693831-2870-4BD7-8B97-D4172BE39D21}" name="Procesar" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B32CF57C-EF29-4208-A0F4-759C58FB77C6}" name="FicheroImport" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{30EE2724-234E-4C86-BC60-259493EC1A47}" name="FicheroRecep" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{4C852EC4-F10A-4819-B368-55DE0A9F6A51}" name="Facturas" dataDxfId="1"/>
-    <tableColumn id="12" xr3:uid="{F0C504CA-0724-4962-A792-63E9F6EAF1FD}" name="SaltarInit" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D2F66354-9140-44A2-BE48-6B98F169495F}" name="Almacen" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{BB6CBD13-B60C-4551-BD87-FC9ED6B29214}" name="Marca" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{63617C51-8B81-4618-AB0D-D5874FD69B32}" name="Proveedor" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{B588A5AC-88B6-4DAA-ADB0-318BC7DC20CB}" name="Codigo taller" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{2A06B81F-720F-4A77-AC31-9683D1BE2AE7}" name="Contraseña" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{107FECD4-84ED-41F4-9D38-4B93573EC825}" name="Correo" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{B89B295B-5EDA-43DB-96AE-81D47FB647A5}" name="CC" dataDxfId="5" dataCellStyle="Hipervínculo"/>
+    <tableColumn id="6" xr3:uid="{ECD6B0EB-973B-4CF3-A242-B52A053A6282}" name="Procesar" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{AC8D7B79-7E8C-4C8C-8AC2-DDFF62C1EB72}" name="FicheroImport" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{08F38C46-13DC-40D8-BE6E-561038F19F96}" name="FicheroRecep" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{3824AAD0-3E0C-4B6E-BA3E-BA12035DF651}" name="Facturas" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{27B30788-73C2-43C7-B323-94E1F34FCB48}" name="SaltarInit" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -546,22 +560,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585711E-8E84-4E0B-81E8-150E05130CF4}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="64.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="64.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
@@ -569,264 +584,349 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>28</v>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>28</v>
+      <c r="I5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="2" t="s">
+      <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>28</v>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G7" s="2"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>34</v>
+      <c r="A8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{EAD3B05B-741D-4D26-900A-D25B94E9CD95}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{37E49928-55F4-4D65-9FE2-C3F67DA1C151}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{093A094D-473E-4058-A502-4C180A3B0352}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{26742DEA-ECCA-4AB7-8A6F-D0EAF94EB6D9}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{6CD929BB-F9CF-4006-B869-DB206E1BF7B5}"/>
-    <hyperlink ref="G2" r:id="rId6" xr:uid="{E9C283E8-8441-4FC6-90A0-49FC0CAD376E}"/>
-    <hyperlink ref="G3" r:id="rId7" xr:uid="{75CCF01D-C868-4142-91F2-5DE49AC0A1F7}"/>
-    <hyperlink ref="G4" r:id="rId8" xr:uid="{D3EE3C82-4CFA-429B-BAF7-7BD8B31DEB41}"/>
-    <hyperlink ref="G5" r:id="rId9" xr:uid="{354066B4-90FF-460E-8224-845F4B27FA66}"/>
-    <hyperlink ref="G6" r:id="rId10" xr:uid="{3C74F937-B6F9-4832-8370-D32674655872}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{4A62F1C7-0CC4-4912-9878-8BF91C95500F}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{1CBD4658-D2C2-4C06-8C75-DDEF327B6C2A}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{95554CA9-B3EC-49E6-A27C-9E29DB641141}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{9D477A7C-E515-448B-847F-F45A4A0F40F0}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{F48587F1-0D54-4134-839F-4054922EE12B}"/>
+    <hyperlink ref="G2" r:id="rId6" xr:uid="{7AA0F9AC-A8F2-48E9-8635-7B989CF73E18}"/>
+    <hyperlink ref="G3" r:id="rId7" xr:uid="{0677F326-6841-4EAD-A8AA-7DB38738D112}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{280607AE-B5C1-4BAE-82D4-1EE93F235856}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{C05B0623-7E7D-4408-8253-3C1094B9DB52}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{3090BDD4-FB4E-442E-8A2D-77108CB06D6E}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{37B5BCA3-C255-4FF8-904C-C403A025F47B}"/>
+    <hyperlink ref="G8" r:id="rId12" xr:uid="{115A23E2-B69C-47FE-8712-184B8FDC1566}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
-  <ignoredErrors>
-    <ignoredError sqref="A6:C6 A2:D2 A3:D3 A4:D4 A5:D5 F2 F5 F3 F6 F4" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
   <tableParts count="1">
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39D91B9-14DF-47A9-B618-AA7F882CC2EA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>45463.291747685187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>